--- a/topic02/book-b/archives/colleges_universities.xlsx
+++ b/topic02/book-b/archives/colleges_universities.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\analytics-2016\topic02\book-b\archives\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2980" windowWidth="22180" windowHeight="16920"/>
+    <workbookView xWindow="10500" yWindow="2985" windowWidth="22185" windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Colleges and Universities" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>School</t>
   </si>
@@ -196,15 +201,17 @@
   </si>
   <si>
     <t xml:space="preserve"> Colleges and Universities</t>
+  </si>
+  <si>
+    <t>acceptance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -247,7 +254,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
@@ -256,10 +263,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -268,6 +275,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -558,26 +573,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +616,11 @@
       <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -610,10 +630,10 @@
       <c r="C4" s="2">
         <v>1315</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.22</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="8">
         <v>26636</v>
       </c>
       <c r="F4" s="2">
@@ -622,9 +642,12 @@
       <c r="G4" s="2">
         <v>93</v>
       </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4">
+        <v>0.22</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -634,10 +657,10 @@
       <c r="C5" s="2">
         <v>1220</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.53</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>17653</v>
       </c>
       <c r="F5" s="2">
@@ -646,9 +669,12 @@
       <c r="G5" s="2">
         <v>80</v>
       </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5">
+        <v>0.53</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -658,10 +684,10 @@
       <c r="C6" s="2">
         <v>1240</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.36</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>17554</v>
       </c>
       <c r="F6" s="2">
@@ -670,9 +696,12 @@
       <c r="G6" s="2">
         <v>88</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6">
+        <v>0.36</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -682,10 +711,10 @@
       <c r="C7" s="2">
         <v>1176</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0.37</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>23665</v>
       </c>
       <c r="F7" s="2">
@@ -694,9 +723,12 @@
       <c r="G7" s="2">
         <v>68</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7">
+        <v>0.37</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -706,10 +738,10 @@
       <c r="C8" s="2">
         <v>1300</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.24</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>25703</v>
       </c>
       <c r="F8" s="2">
@@ -718,8 +750,11 @@
       <c r="G8" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -729,10 +764,10 @@
       <c r="C9" s="2">
         <v>1281</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.24</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>24201</v>
       </c>
       <c r="F9" s="2">
@@ -741,8 +776,11 @@
       <c r="G9" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -752,10 +790,10 @@
       <c r="C10" s="2">
         <v>1255</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>18847</v>
       </c>
       <c r="F10" s="2">
@@ -764,9 +802,12 @@
       <c r="G10" s="2">
         <v>84</v>
       </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -776,10 +817,10 @@
       <c r="C11" s="2">
         <v>1400</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.31</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>102262</v>
       </c>
       <c r="F11" s="2">
@@ -788,9 +829,12 @@
       <c r="G11" s="2">
         <v>75</v>
       </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11">
+        <v>0.31</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -800,10 +844,10 @@
       <c r="C12" s="2">
         <v>1300</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>15904</v>
       </c>
       <c r="F12" s="2">
@@ -812,8 +856,11 @@
       <c r="G12" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -823,10 +870,10 @@
       <c r="C13" s="2">
         <v>1225</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>0.64</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
         <v>33607</v>
       </c>
       <c r="F13" s="2">
@@ -835,8 +882,11 @@
       <c r="G13" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -846,10 +896,10 @@
       <c r="C14" s="2">
         <v>1260</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>0.36</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>20377</v>
       </c>
       <c r="F14" s="2">
@@ -858,8 +908,11 @@
       <c r="G14" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -869,10 +922,10 @@
       <c r="C15" s="2">
         <v>1200</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.46</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <v>18872</v>
       </c>
       <c r="F15" s="2">
@@ -881,8 +934,11 @@
       <c r="G15" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -892,10 +948,10 @@
       <c r="C16" s="2">
         <v>1258</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>0.38</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>17520</v>
       </c>
       <c r="F16" s="2">
@@ -904,8 +960,11 @@
       <c r="G16" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -915,10 +974,10 @@
       <c r="C17" s="2">
         <v>1268</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>45879</v>
       </c>
       <c r="F17" s="2">
@@ -927,8 +986,11 @@
       <c r="G17" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -938,10 +1000,10 @@
       <c r="C18" s="2">
         <v>1280</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>0.3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>37137</v>
       </c>
       <c r="F18" s="2">
@@ -950,8 +1012,11 @@
       <c r="G18" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -961,10 +1026,10 @@
       <c r="C19" s="2">
         <v>1230</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>0.36</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="8">
         <v>17721</v>
       </c>
       <c r="F19" s="2">
@@ -973,8 +1038,11 @@
       <c r="G19" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -984,10 +1052,10 @@
       <c r="C20" s="2">
         <v>1310</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>0.25</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>39504</v>
       </c>
       <c r="F20" s="2">
@@ -996,8 +1064,11 @@
       <c r="G20" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1007,10 +1078,10 @@
       <c r="C21" s="2">
         <v>1278</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>0.24</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="8">
         <v>23115</v>
       </c>
       <c r="F21" s="2">
@@ -1019,8 +1090,11 @@
       <c r="G21" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1030,10 +1104,10 @@
       <c r="C22" s="2">
         <v>1244</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>0.67</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
         <v>22301</v>
       </c>
       <c r="F22" s="2">
@@ -1042,8 +1116,11 @@
       <c r="G22" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1053,10 +1130,10 @@
       <c r="C23" s="2">
         <v>1215</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>0.38</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
         <v>20722</v>
       </c>
       <c r="F23" s="2">
@@ -1065,8 +1142,11 @@
       <c r="G23" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1076,10 +1156,10 @@
       <c r="C24" s="2">
         <v>1370</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>0.18</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
         <v>46918</v>
       </c>
       <c r="F24" s="2">
@@ -1088,8 +1168,11 @@
       <c r="G24" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1099,10 +1182,10 @@
       <c r="C25" s="2">
         <v>1285</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>0.35</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
         <v>19418</v>
       </c>
       <c r="F25" s="2">
@@ -1111,8 +1194,11 @@
       <c r="G25" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1122,10 +1208,10 @@
       <c r="C26" s="2">
         <v>1290</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>0.48</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
         <v>45460</v>
       </c>
       <c r="F26" s="2">
@@ -1134,8 +1220,11 @@
       <c r="G26" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1145,10 +1234,10 @@
       <c r="C27" s="2">
         <v>1255</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>0.25</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="8">
         <v>24718</v>
       </c>
       <c r="F27" s="2">
@@ -1157,8 +1246,11 @@
       <c r="G27" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1168,10 +1260,10 @@
       <c r="C28" s="2">
         <v>1357</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>0.3</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="8">
         <v>56766</v>
       </c>
       <c r="F28" s="2">
@@ -1180,8 +1272,11 @@
       <c r="G28" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -1191,10 +1286,10 @@
       <c r="C29" s="2">
         <v>1200</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>0.61</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="8">
         <v>23358</v>
       </c>
       <c r="F29" s="2">
@@ -1203,8 +1298,11 @@
       <c r="G29" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -1214,10 +1312,10 @@
       <c r="C30" s="2">
         <v>1230</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>0.47</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="8">
         <v>28851</v>
       </c>
       <c r="F30" s="2">
@@ -1226,8 +1324,11 @@
       <c r="G30" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
@@ -1237,10 +1338,10 @@
       <c r="C31" s="2">
         <v>1247</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>0.54</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="8">
         <v>23591</v>
       </c>
       <c r="F31" s="2">
@@ -1249,8 +1350,11 @@
       <c r="G31" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1260,10 +1364,10 @@
       <c r="C32" s="2">
         <v>1170</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>0.49</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="8">
         <v>20192</v>
       </c>
       <c r="F32" s="2">
@@ -1272,8 +1376,11 @@
       <c r="G32" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1283,10 +1390,10 @@
       <c r="C33" s="2">
         <v>1320</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>0.33</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="8">
         <v>26668</v>
       </c>
       <c r="F33" s="2">
@@ -1295,8 +1402,11 @@
       <c r="G33" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1306,10 +1416,10 @@
       <c r="C34" s="2">
         <v>1340</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>0.17</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="8">
         <v>48123</v>
       </c>
       <c r="F34" s="2">
@@ -1318,8 +1428,11 @@
       <c r="G34" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -1329,10 +1442,10 @@
       <c r="C35" s="2">
         <v>1327</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>0.24</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="8">
         <v>26730</v>
       </c>
       <c r="F35" s="2">
@@ -1341,8 +1454,11 @@
       <c r="G35" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1352,10 +1468,10 @@
       <c r="C36" s="2">
         <v>1195</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="8">
         <v>25271</v>
       </c>
       <c r="F36" s="2">
@@ -1364,8 +1480,11 @@
       <c r="G36" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -1375,10 +1494,10 @@
       <c r="C37" s="2">
         <v>1370</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>0.18</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="8">
         <v>61921</v>
       </c>
       <c r="F37" s="2">
@@ -1387,8 +1506,11 @@
       <c r="G37" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -1398,10 +1520,10 @@
       <c r="C38" s="2">
         <v>1310</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>0.24</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="8">
         <v>27487</v>
       </c>
       <c r="F38" s="2">
@@ -1410,8 +1532,11 @@
       <c r="G38" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -1421,10 +1546,10 @@
       <c r="C39" s="2">
         <v>1195</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>0.6</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="8">
         <v>21853</v>
       </c>
       <c r="F39" s="2">
@@ -1433,8 +1558,11 @@
       <c r="G39" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1444,10 +1572,10 @@
       <c r="C40" s="2">
         <v>1300</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>0.45</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="8">
         <v>38937</v>
       </c>
       <c r="F40" s="2">
@@ -1456,8 +1584,11 @@
       <c r="G40" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
@@ -1467,10 +1598,10 @@
       <c r="C41" s="2">
         <v>1155</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="8">
         <v>38597</v>
       </c>
       <c r="F41" s="2">
@@ -1479,8 +1610,11 @@
       <c r="G41" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1490,10 +1624,10 @@
       <c r="C42" s="2">
         <v>1280</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>0.41</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="8">
         <v>30882</v>
       </c>
       <c r="F42" s="2">
@@ -1502,8 +1636,11 @@
       <c r="G42" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -1513,10 +1650,10 @@
       <c r="C43" s="2">
         <v>1218</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>0.37</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="8">
         <v>19365</v>
       </c>
       <c r="F43" s="2">
@@ -1525,8 +1662,11 @@
       <c r="G43" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1536,10 +1676,10 @@
       <c r="C44" s="2">
         <v>1142</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>0.43</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="8">
         <v>26859</v>
       </c>
       <c r="F44" s="2">
@@ -1548,8 +1688,11 @@
       <c r="G44" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -1559,10 +1702,10 @@
       <c r="C45" s="2">
         <v>1109</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>0.32</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="8">
         <v>19684</v>
       </c>
       <c r="F45" s="2">
@@ -1571,8 +1714,11 @@
       <c r="G45" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
@@ -1582,10 +1728,10 @@
       <c r="C46" s="2">
         <v>1287</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>0.43</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="8">
         <v>20179</v>
       </c>
       <c r="F46" s="2">
@@ -1594,8 +1740,11 @@
       <c r="G46" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -1605,10 +1754,10 @@
       <c r="C47" s="2">
         <v>1225</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>0.54</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="8">
         <v>39883</v>
       </c>
       <c r="F47" s="2">
@@ -1617,8 +1766,11 @@
       <c r="G47" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
@@ -1628,10 +1780,10 @@
       <c r="C48" s="2">
         <v>1234</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="8">
         <v>17998</v>
       </c>
       <c r="F48" s="2">
@@ -1640,8 +1792,11 @@
       <c r="G48" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -1651,10 +1806,10 @@
       <c r="C49" s="2">
         <v>1250</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>0.49</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="8">
         <v>27879</v>
       </c>
       <c r="F49" s="2">
@@ -1663,8 +1818,11 @@
       <c r="G49" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -1674,10 +1832,10 @@
       <c r="C50" s="2">
         <v>1290</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>0.35</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="8">
         <v>19948</v>
       </c>
       <c r="F50" s="2">
@@ -1686,8 +1844,11 @@
       <c r="G50" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -1697,10 +1858,10 @@
       <c r="C51" s="2">
         <v>1336</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="8">
         <v>23772</v>
       </c>
       <c r="F51" s="2">
@@ -1709,8 +1870,11 @@
       <c r="G51" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>31</v>
       </c>
@@ -1720,10 +1884,10 @@
       <c r="C52" s="2">
         <v>1350</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>0.19</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="8">
         <v>52468</v>
       </c>
       <c r="F52" s="2">
@@ -1732,28 +1896,34 @@
       <c r="G52" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="12" customHeight="1">
-      <c r="A55" s="3"/>
+      <c r="H52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <f>CORREL(E3:E52,H3:H52)</f>
+        <v>-0.28425441485890601</v>
+      </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
     </row>
   </sheetData>
@@ -1762,6 +1932,7 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
